--- a/date/レビュー結果記録/05_レビュー議事録 (要求分析).xlsx
+++ b/date/レビュー結果記録/05_レビュー議事録 (要求分析).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E072B823-CC98-4DCB-A419-75E1914A0695}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BFC995-306D-4063-9380-1DCF82037EF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29655" yWindow="1425" windowWidth="15255" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15255" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>会議名</t>
     <rPh sb="0" eb="2">
@@ -283,55 +283,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>第１反復</t>
-  </si>
-  <si>
-    <t>町田</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>スケジュールがタイト</t>
-  </si>
-  <si>
-    <t>蜂須賀</t>
-  </si>
-  <si>
-    <t>第2反復を軽くし、第1反復にもう少し時間をかける</t>
-  </si>
-  <si>
-    <t>反復1～3で分割してよい</t>
-  </si>
-  <si>
-    <t>要求書に書いてあることを分割してよいか</t>
-  </si>
-  <si>
-    <t>質問</t>
-  </si>
-  <si>
-    <t>反復計画書</t>
-  </si>
-  <si>
-    <t>振り返りの資料を追加</t>
-  </si>
-  <si>
-    <t>各反復の成果物</t>
-  </si>
-  <si>
-    <t>振り返りの資料を各反復の成果物に追加する</t>
-  </si>
-  <si>
-    <t>スケジュール</t>
-  </si>
-  <si>
     <t>今古賀,福原,武田,町田,金子</t>
-  </si>
-  <si>
-    <t>内容と日程を見直す</t>
-  </si>
-  <si>
-    <t>内容が重い</t>
   </si>
   <si>
     <t>武田</t>
@@ -387,13 +342,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>今古賀,福原,武田,町田,金子（敬称略）</t>
-    <rPh sb="16" eb="19">
-      <t>ケイショウリャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>畔上</t>
     <rPh sb="0" eb="2">
       <t>アゼガミ</t>
@@ -575,6 +523,20 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今古賀,福原,武田,町田,金子,畔上（敬称略）</t>
+    <rPh sb="16" eb="18">
+      <t>アゼガミ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ケイショウリャク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -618,7 +580,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -918,30 +880,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -956,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1012,50 +950,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1063,12 +1002,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1520,8 +1453,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1533,10 +1466,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1545,78 +1478,78 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="26"/>
+      <c r="A2" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="25"/>
       <c r="C2" s="7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
+      <c r="A4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="26"/>
+      <c r="A6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
+        <v>43</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1625,86 +1558,86 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="34"/>
+      <c r="A10" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="33"/>
       <c r="C10" s="13" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D10" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="34"/>
+      <c r="A11" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="33"/>
       <c r="C11" s="13" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D11" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="34"/>
+      <c r="A12" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="33"/>
       <c r="C12" s="13" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D12" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="34"/>
+      <c r="A13" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="33"/>
       <c r="C13" s="13" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D13" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -1757,10 +1690,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1775,7 +1708,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
@@ -1800,20 +1733,20 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>32</v>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G2" s="9"/>
     </row>
@@ -1821,41 +1754,41 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>44</v>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>48</v>
+      <c r="F4" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -1863,27 +1796,27 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>32</v>
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="19"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1891,78 +1824,38 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>74</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -2030,7 +1923,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2039,7 +1932,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
-      <c r="B19" s="20"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2048,26 +1941,17 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8 C9:C21" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9 C10:C20" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"指摘,質問,その他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2096,10 +1980,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2108,10 +1992,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
@@ -2121,66 +2005,66 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
@@ -2189,10 +2073,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="13" t="s">
         <v>29</v>
       </c>
@@ -2201,10 +2085,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="13" t="s">
         <v>25</v>
       </c>
@@ -2213,10 +2097,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
@@ -2225,44 +2109,44 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -2582,6 +2466,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2765,22 +2664,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C485779-9B77-4687-934A-DBD6F5D384E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2796,28 +2704,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/date/レビュー結果記録/05_レビュー議事録 (要求分析).xlsx
+++ b/date/レビュー結果記録/05_レビュー議事録 (要求分析).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BFC995-306D-4063-9380-1DCF82037EF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5653A48-DE94-49E4-A36B-503E94E45177}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15255" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="780" windowWidth="15255" windowHeight="9750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -457,28 +457,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>システムテスト仕様書の予想結果及び、テスト手順の修正</t>
-    <rPh sb="7" eb="10">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヨソウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユースケース記述</t>
     <rPh sb="6" eb="8">
       <t>キジュツ</t>
@@ -531,12 +509,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>今古賀,福原,武田,町田,金子,畔上（敬称略）</t>
-    <rPh sb="16" eb="18">
+    <t>畔上,今古賀,福原,武田,町田,金子（敬称略）</t>
+    <rPh sb="0" eb="2">
       <t>アゼガミ</t>
     </rPh>
     <rPh sb="19" eb="22">
       <t>ケイショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムテスト仕様書の予想結果及び、テスト手順の修正する</t>
+    <rPh sb="7" eb="10">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨソウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -959,21 +959,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -982,27 +1003,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1453,8 +1453,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+    <sheetView view="pageLayout" topLeftCell="A6" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1466,10 +1466,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1478,10 +1478,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="7" t="s">
         <v>44</v>
       </c>
@@ -1490,66 +1490,66 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
+      <c r="A4" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1558,10 +1558,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="13" t="s">
         <v>37</v>
       </c>
@@ -1570,10 +1570,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>45</v>
       </c>
@@ -1582,10 +1582,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="13" t="s">
         <v>37</v>
       </c>
@@ -1594,10 +1594,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="13" t="s">
         <v>37</v>
       </c>
@@ -1606,38 +1606,38 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -1652,17 +1652,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1673,6 +1662,17 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1692,8 +1692,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1734,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>47</v>
@@ -1776,19 +1776,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -1809,7 +1809,7 @@
         <v>46</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -1980,10 +1980,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1992,10 +1992,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
@@ -2005,66 +2005,66 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
@@ -2073,10 +2073,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="13" t="s">
         <v>29</v>
       </c>
@@ -2085,10 +2085,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>25</v>
       </c>
@@ -2097,10 +2097,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
@@ -2109,44 +2109,44 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -2161,18 +2161,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -2182,6 +2170,18 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2466,21 +2466,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2664,10 +2649,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C485779-9B77-4687-934A-DBD6F5D384E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2689,19 +2699,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C485779-9B77-4687-934A-DBD6F5D384E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>